--- a/outputs/Part2.2.xlsx
+++ b/outputs/Part2.2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\IISc\CVO\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4E1765BB-17D6-4AC7-99B2-F47A39BD4C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1D8BCB-A068-42A7-8F81-AFEEBC2D2DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1NormPlusReg (LogScale)" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,17 @@
     <sheet name="L2 x values (LogScale)" sheetId="16" r:id="rId11"/>
     <sheet name="2.2.L2" sheetId="1" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -87,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -15378,6 +15388,7 @@
         <c:axId val="589886488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15791,6 +15802,7 @@
         <c:axId val="675879088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -24024,11 +24036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24448,7 +24460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25199,11 +25211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27000,7 +27012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27751,10 +27763,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -28175,7 +28187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28599,7 +28611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29023,11 +29035,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29207,7 +29219,191 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.9455400475392797E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.2559626378429297E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.97422171210225E-13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.7028775774382597E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.3272295683109003E-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.79631483896735E-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.1115981101136997E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.3340481889729906E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.12901777105967E-11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7.9276972345820407E-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.6692180963990404E-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.9333483793529298E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.9309251442146994E-11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.7816548437666901E-12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4.8062733054744402E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.2081745735256E-11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.61599703570802E-12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.8678078946230997E-12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.8312974837752201E-12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5.6238928093459201E-12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29221,167 +29417,167 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>2.9455400475392797E-11</v>
+      <c r="B2">
+        <v>6.56353058178395</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>4.2559626378429297E-12</v>
+      <c r="B3">
+        <v>6.5607890437554</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.97422171210225E-13</v>
+      <c r="B4">
+        <v>6.5600937261061096</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
-      <c r="B5" s="1">
-        <v>7.7028775774382597E-12</v>
+      <c r="B5">
+        <v>6.5598015432042702</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25</v>
       </c>
-      <c r="B6" s="1">
-        <v>4.3272295683109003E-12</v>
+      <c r="B6">
+        <v>6.5596477173728003</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
-      <c r="B7" s="1">
-        <v>1.79631483896735E-12</v>
+      <c r="B7">
+        <v>6.5595541982800896</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>35</v>
       </c>
-      <c r="B8" s="1">
-        <v>5.1115981101136997E-12</v>
+      <c r="B8">
+        <v>6.5594921273928799</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40</v>
       </c>
-      <c r="B9" s="1">
-        <v>7.3340481889729906E-12</v>
+      <c r="B9">
+        <v>6.5594482948486501</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>45</v>
       </c>
-      <c r="B10" s="1">
-        <v>1.12901777105967E-11</v>
+      <c r="B10">
+        <v>6.5594156741570098</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50</v>
       </c>
-      <c r="B11" s="1">
-        <v>7.9276972345820407E-12</v>
+      <c r="B11">
+        <v>6.5593904580946303</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>55</v>
       </c>
-      <c r="B12" s="1">
-        <v>9.6692180963990404E-12</v>
+      <c r="B12">
+        <v>6.5593707023200203</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60</v>
       </c>
-      <c r="B13" s="1">
-        <v>9.9333483793529298E-11</v>
+      <c r="B13">
+        <v>6.5593547358492801</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>65</v>
       </c>
-      <c r="B14" s="1">
-        <v>7.9309251442146994E-11</v>
+      <c r="B14">
+        <v>6.5593416025728901</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>70</v>
       </c>
-      <c r="B15" s="1">
-        <v>7.7816548437666901E-12</v>
+      <c r="B15">
+        <v>6.5593306929939796</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>75</v>
       </c>
-      <c r="B16" s="1">
-        <v>4.8062733054744402E-12</v>
+      <c r="B16">
+        <v>6.5593209610943797</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80</v>
       </c>
-      <c r="B17" s="1">
-        <v>1.2081745735256E-11</v>
+      <c r="B17">
+        <v>6.5593127282841799</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>85</v>
       </c>
-      <c r="B18" s="1">
-        <v>7.61599703570802E-12</v>
+      <c r="B18">
+        <v>6.5593057591428998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>90</v>
       </c>
-      <c r="B19" s="1">
-        <v>3.8678078946230997E-12</v>
+      <c r="B19">
+        <v>6.5592997405262699</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>95</v>
       </c>
-      <c r="B20" s="1">
-        <v>8.8312974837752201E-12</v>
+      <c r="B20">
+        <v>6.5592945134963099</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
-      <c r="B21" s="1">
-        <v>5.6238928093459201E-12</v>
+      <c r="B21">
+        <v>6.5592895880730504</v>
       </c>
     </row>
   </sheetData>
@@ -29390,12 +29586,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29405,190 +29601,6 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>6.56353058178395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>6.5607890437554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>6.5600937261061096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>6.5598015432042702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>6.5596477173728003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>6.5595541982800896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>6.5594921273928799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>6.5594482948486501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>6.5594156741570098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>6.5593904580946303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>55</v>
-      </c>
-      <c r="B12">
-        <v>6.5593707023200203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>60</v>
-      </c>
-      <c r="B13">
-        <v>6.5593547358492801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>65</v>
-      </c>
-      <c r="B14">
-        <v>6.5593416025728901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>70</v>
-      </c>
-      <c r="B15">
-        <v>6.5593306929939796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>75</v>
-      </c>
-      <c r="B16">
-        <v>6.5593209610943797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>80</v>
-      </c>
-      <c r="B17">
-        <v>6.5593127282841799</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>85</v>
-      </c>
-      <c r="B18">
-        <v>6.5593057591428998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>90</v>
-      </c>
-      <c r="B19">
-        <v>6.5592997405262699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>95</v>
-      </c>
-      <c r="B20">
-        <v>6.5592945134963099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>100</v>
-      </c>
-      <c r="B21">
-        <v>6.5592895880730504</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -29759,7 +29771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
